--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder PAEO1971Maintenance201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder PAEO1971Maintenance201819.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Court Order and Student Loan Project\input sheet for scenario 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BCF8091-C784-4BDF-BC62-E1CDA567434D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46A2052B-A165-4238-9FF4-B4CCD3742A55}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>This script sets NI, Annual salary and Pay frequency And processes sep,oct and nov Draft payroll and process report for oct and nov payruns</t>
   </si>
   <si>
-    <t>SepMonthName</t>
-  </si>
-  <si>
     <t>OctMonthName</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>PAEO1971MaintnceReports</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTMN COURT PAEO REPORT</t>
-  </si>
-  <si>
     <t>December-2018</t>
   </si>
   <si>
@@ -189,6 +183,12 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTMN COURT PAEO REPORT1</t>
+  </si>
+  <si>
+    <t>DecMonthName</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -258,7 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -278,6 +279,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -625,7 +629,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,12 +656,12 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
@@ -666,12 +670,12 @@
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
@@ -688,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,8 +706,8 @@
     <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="17" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="36" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="23.28515625" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="15.28515625" customWidth="1" collapsed="1"/>
@@ -712,8 +716,7 @@
     <col min="18" max="18" width="22.7109375" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="22.140625" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="25" width="21.42578125" customWidth="1"/>
+    <col min="21" max="25" width="21.42578125" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -743,7 +746,7 @@
         <v>41</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>11</v>
@@ -785,13 +788,13 @@
         <v>37</v>
       </c>
       <c r="W1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>2</v>
@@ -805,10 +808,10 @@
     </row>
     <row r="2" spans="1:28" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7">
         <v>12000</v>
@@ -829,16 +832,16 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
@@ -869,13 +872,13 @@
         <v>30</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>4</v>
